--- a/EL - Electrical/Autre/Bus CAN ID List.xlsx
+++ b/EL - Electrical/Autre/Bus CAN ID List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="90" documentId="11_AD4D9D64A577C11A406BCC1CC75C657C5BDEDD98" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{33B16A74-477A-496D-9464-1A3ADF99F50C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2723295F-03E1-4964-8AA5-3A573B3888C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11496" yWindow="3624" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -483,13 +484,13 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.77734375" style="2"/>
+    <col min="2" max="3" width="8.77734375" style="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
@@ -500,10 +501,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -518,10 +519,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -529,10 +530,10 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2000</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <f>DEC2HEX(B3)</f>
         <v>7D0</v>
       </c>
@@ -550,11 +551,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2001</v>
       </c>
-      <c r="C4" s="2" t="str">
-        <f t="shared" ref="C4:C31" si="0">DEC2HEX(B4)</f>
+      <c r="C4" s="1" t="str">
+        <f t="shared" ref="C4:C15" si="0">DEC2HEX(B4)</f>
         <v>7D1</v>
       </c>
       <c r="D4" t="s">
@@ -571,10 +572,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2002</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>7D2</v>
       </c>
@@ -592,10 +593,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2003</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>7D3</v>
       </c>
@@ -613,10 +614,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2004</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>7D4</v>
       </c>
@@ -634,10 +635,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>2005</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>7D5</v>
       </c>
@@ -655,10 +656,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>2006</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>7D6</v>
       </c>
@@ -676,10 +677,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>2007</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>7D7</v>
       </c>
@@ -697,10 +698,10 @@
       <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1000</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3E8</v>
       </c>
@@ -709,12 +710,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>BB8</v>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
@@ -724,12 +722,12 @@
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FA0</v>
+      <c r="B15" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3EA</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
